--- a/run_1/SVM/SVM_MICE/Tables/SVM_performance_metrics_per_fold.xlsx
+++ b/run_1/SVM/SVM_MICE/Tables/SVM_performance_metrics_per_fold.xlsx
@@ -452,57 +452,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96.35671631034397</v>
+        <v>104.629996108622</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1690843689992005</v>
+        <v>0.1095773622483572</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111.9082948639362</v>
+        <v>123.772948660898</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03497799632770482</v>
+        <v>-0.05333307395443487</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111.2680768598067</v>
+        <v>96.47495660750897</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04049880657580396</v>
+        <v>0.1789784140845004</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109.8432543670252</v>
+        <v>106.471634287554</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05278551917859353</v>
+        <v>0.1187283637482496</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108.9134792942406</v>
+        <v>104.752381984892</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06080327518849449</v>
+        <v>0.13295871063862</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
